--- a/ProcessedData/conf_svm_audio_5.xlsx
+++ b/ProcessedData/conf_svm_audio_5.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.7776128620389091</v>
+        <v>-0.7776191412529195</v>
       </c>
       <c r="C2">
-        <v>0.1893014197572785</v>
+        <v>0.189301650231128</v>
       </c>
       <c r="D2">
-        <v>-0.5965201954447377</v>
+        <v>-0.5965269727522713</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.8739653421409673</v>
+        <v>-0.8739719145809722</v>
       </c>
       <c r="C3">
-        <v>0.1195036031686529</v>
+        <v>0.1195045175789751</v>
       </c>
       <c r="D3">
-        <v>-0.368705315471072</v>
+        <v>-0.3687117010803013</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.372735718204651</v>
+        <v>-1.372743401806534</v>
       </c>
       <c r="C4">
-        <v>-0.2866482312471074</v>
+        <v>-0.2866479188336272</v>
       </c>
       <c r="D4">
-        <v>0.3989110567135447</v>
+        <v>0.3989037621926365</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5992198178507606</v>
+        <v>-0.5992258411819292</v>
       </c>
       <c r="C5">
-        <v>-0.1236364965133743</v>
+        <v>-0.1236367023547796</v>
       </c>
       <c r="D5">
-        <v>-0.3166986879888122</v>
+        <v>-0.3167049235537633</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.222798891134164</v>
+        <v>-1.222805519264798</v>
       </c>
       <c r="C6">
-        <v>-0.1983722009535073</v>
+        <v>-0.1983716390624911</v>
       </c>
       <c r="D6">
-        <v>0.2088616158537197</v>
+        <v>0.208856447132278</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.002057938712781</v>
+        <v>-1.002065863946709</v>
       </c>
       <c r="C7">
-        <v>-0.8361942973913457</v>
+        <v>-0.8361936253553255</v>
       </c>
       <c r="D7">
-        <v>0.629898883001809</v>
+        <v>0.6298955539358608</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.214059648932333</v>
+        <v>-1.214065959525751</v>
       </c>
       <c r="C8">
-        <v>-0.8139250560006073</v>
+        <v>-0.8139243545109653</v>
       </c>
       <c r="D8">
-        <v>0.667840616905636</v>
+        <v>0.6678368889755841</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.377213694271262</v>
+        <v>-1.37722012646306</v>
       </c>
       <c r="C9">
-        <v>-0.2880948174568827</v>
+        <v>-0.2880946397881738</v>
       </c>
       <c r="D9">
-        <v>0.3776768422667767</v>
+        <v>0.3776711651924653</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.70545400171071</v>
+        <v>-0.7054597698029907</v>
       </c>
       <c r="C10">
-        <v>0.1987694699345347</v>
+        <v>0.1987695732573388</v>
       </c>
       <c r="D10">
-        <v>-0.7043177970924439</v>
+        <v>-0.7043235855023084</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.6617926045504149</v>
+        <v>-0.6617985883961213</v>
       </c>
       <c r="C11">
-        <v>-0.2713672015272889</v>
+        <v>-0.2713661155868562</v>
       </c>
       <c r="D11">
-        <v>-0.3377746842990641</v>
+        <v>-0.3377802531485987</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.247799988245124</v>
+        <v>-1.247806467403402</v>
       </c>
       <c r="C12">
-        <v>-0.6597756535766536</v>
+        <v>-0.6597751333630422</v>
       </c>
       <c r="D12">
-        <v>0.6225579095553885</v>
+        <v>0.6225532855739495</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.284211743301039</v>
+        <v>-1.284218338005962</v>
       </c>
       <c r="C13">
-        <v>-0.09532958769455385</v>
+        <v>-0.09532902324181297</v>
       </c>
       <c r="D13">
-        <v>0.1854765738634802</v>
+        <v>0.1854703507220067</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.274861870580671</v>
+        <v>-1.27486792065105</v>
       </c>
       <c r="C14">
-        <v>-0.4778527959220682</v>
+        <v>-0.4778519321627877</v>
       </c>
       <c r="D14">
-        <v>0.4348540414414624</v>
+        <v>0.4348484497389924</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.4459115474273575</v>
+        <v>-0.4459174918127357</v>
       </c>
       <c r="C15">
-        <v>-0.3843290340890252</v>
+        <v>-0.3843289046842053</v>
       </c>
       <c r="D15">
-        <v>-0.2949437133244821</v>
+        <v>-0.2949492667420289</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.114769972651408</v>
+        <v>-1.114776814471476</v>
       </c>
       <c r="C16">
-        <v>-0.1320231657457407</v>
+        <v>-0.1320232083482374</v>
       </c>
       <c r="D16">
-        <v>0.007503010430180146</v>
+        <v>0.007497066760869003</v>
+      </c>
+      <c r="E16">
+        <v>37</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.5560240325378705</v>
+        <v>-0.5560289602750721</v>
       </c>
       <c r="C17">
-        <v>-0.2921012019231615</v>
+        <v>-0.2921004812558553</v>
       </c>
       <c r="D17">
-        <v>-0.2276166074421184</v>
+        <v>-0.2276218757937314</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.289339350806118</v>
+        <v>-1.289345607326294</v>
       </c>
       <c r="C18">
-        <v>-0.4814674810700066</v>
+        <v>-0.4814669538446142</v>
       </c>
       <c r="D18">
-        <v>0.3929580900608566</v>
+        <v>0.3929532404315871</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.004530491073962</v>
+        <v>-1.004536985554872</v>
       </c>
       <c r="C19">
-        <v>-0.6369039962524546</v>
+        <v>-0.6369032186382274</v>
       </c>
       <c r="D19">
-        <v>0.4154414623159958</v>
+        <v>0.4154354042277514</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.541395748088992</v>
+        <v>-1.54140237087265</v>
       </c>
       <c r="C20">
-        <v>0.5581927907159225</v>
+        <v>0.5581930130819421</v>
       </c>
       <c r="D20">
-        <v>-0.2349991722259944</v>
+        <v>-0.2350064546554828</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.344745286070364</v>
+        <v>-1.344751339892801</v>
       </c>
       <c r="C21">
-        <v>0.5208937712811763</v>
+        <v>0.5208941305108972</v>
       </c>
       <c r="D21">
-        <v>-0.3257038892170877</v>
+        <v>-0.3257108879263871</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.9018301753219931</v>
+        <v>-0.9018368941619399</v>
       </c>
       <c r="C22">
-        <v>-0.2219633027694966</v>
+        <v>-0.2219628868371815</v>
       </c>
       <c r="D22">
-        <v>0.1395166706169665</v>
+        <v>0.1395100011354598</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.068521524284661</v>
+        <v>-1.068525926762597</v>
       </c>
       <c r="C23">
-        <v>-0.5005064467608896</v>
+        <v>-0.5005056433611315</v>
       </c>
       <c r="D23">
-        <v>0.4065054405498625</v>
+        <v>0.4065012963850949</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.357244623368279</v>
+        <v>-1.357250922020344</v>
       </c>
       <c r="C24">
-        <v>0.06561397079553188</v>
+        <v>0.06561394823761491</v>
       </c>
       <c r="D24">
-        <v>0.09155491693098833</v>
+        <v>0.09154883374593015</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.308353100195128</v>
+        <v>-1.308360080983467</v>
       </c>
       <c r="C25">
-        <v>-0.3571777061422657</v>
+        <v>-0.3571775078874008</v>
       </c>
       <c r="D25">
-        <v>0.486076397334898</v>
+        <v>0.4860693510830845</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.666885951342834</v>
+        <v>-2.666892365028628</v>
       </c>
       <c r="C26">
-        <v>-0.4118796718814722</v>
+        <v>-0.4118785962730351</v>
       </c>
       <c r="D26">
-        <v>1.555358196277967</v>
+        <v>1.555353496068326</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.288879159336899</v>
+        <v>-1.288886341998413</v>
       </c>
       <c r="C27">
-        <v>-0.5476408948154515</v>
+        <v>-0.5476405740390132</v>
       </c>
       <c r="D27">
-        <v>0.5736343271316952</v>
+        <v>0.5736281650948956</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.5213436868332875</v>
+        <v>-0.5213522123427108</v>
       </c>
       <c r="C28">
-        <v>0.05051871620330806</v>
+        <v>0.05051891910834261</v>
       </c>
       <c r="D28">
-        <v>-0.6857618622844418</v>
+        <v>-0.6857703722807219</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.070180849396185</v>
+        <v>-1.070188432453693</v>
       </c>
       <c r="C29">
-        <v>0.7649896918433281</v>
+        <v>0.7649899954998085</v>
       </c>
       <c r="D29">
-        <v>-1.136671946576711</v>
+        <v>-1.13667820280134</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2499281244055823</v>
+        <v>-0.2499334811535346</v>
       </c>
       <c r="C30">
-        <v>-0.09653004221627903</v>
+        <v>-0.09653036071021837</v>
       </c>
       <c r="D30">
-        <v>-0.9092353122988206</v>
+        <v>-0.9092433407528886</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.199848319289888</v>
+        <v>-1.199854742348359</v>
       </c>
       <c r="C31">
-        <v>0.6800523084526597</v>
+        <v>0.680052336725095</v>
       </c>
       <c r="D31">
-        <v>-0.9538725700080213</v>
+        <v>-0.9538786836410755</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.298227260738525</v>
+        <v>-1.298232614848985</v>
       </c>
       <c r="C32">
-        <v>-0.3807223857056887</v>
+        <v>-0.3807225636965629</v>
       </c>
       <c r="D32">
-        <v>0.3965847406344007</v>
+        <v>0.3965786580608621</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.8430008045079554</v>
+        <v>-0.8430079340322965</v>
       </c>
       <c r="C33">
-        <v>-0.4644681361585241</v>
+        <v>-0.4644674656975704</v>
       </c>
       <c r="D33">
-        <v>0.1715196496347692</v>
+        <v>0.1715102287838852</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.5113514602386285</v>
+        <v>-0.5113588985846154</v>
       </c>
       <c r="C34">
-        <v>0.09670733436409906</v>
+        <v>0.09670766399928221</v>
       </c>
       <c r="D34">
-        <v>-0.7412603783875171</v>
+        <v>-0.7412684620519339</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.262677924601325</v>
+        <v>-1.262682716541897</v>
       </c>
       <c r="C35">
-        <v>0.2151860765175594</v>
+        <v>0.215186774896691</v>
       </c>
       <c r="D35">
-        <v>-0.2721758929525881</v>
+        <v>-0.2721822648165229</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.05401814551790529</v>
+        <v>0.0540108186882946</v>
       </c>
       <c r="C36">
-        <v>-0.428594419446806</v>
+        <v>-0.4285932408984797</v>
       </c>
       <c r="D36">
-        <v>-0.8762604861497644</v>
+        <v>-0.8762672676946544</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7349095520724942</v>
+        <v>-0.7349176436630602</v>
       </c>
       <c r="C37">
-        <v>-0.0106620054251072</v>
+        <v>-0.01066124053551532</v>
       </c>
       <c r="D37">
-        <v>-0.5263513123876473</v>
+        <v>-0.5263593255005399</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-2.362748992991055</v>
+        <v>-2.362758086758058</v>
       </c>
       <c r="C38">
-        <v>-0.1210047988436123</v>
+        <v>-0.1210033567178103</v>
       </c>
       <c r="D38">
-        <v>1.012928854966647</v>
+        <v>1.012919255883821</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2458888219322671</v>
+        <v>-0.2458968439928144</v>
       </c>
       <c r="C39">
-        <v>-0.986266647670428</v>
+        <v>-0.9862659018047808</v>
       </c>
       <c r="D39">
-        <v>0.07250508961763874</v>
+        <v>0.07249781553990198</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.052049137526889</v>
+        <v>-1.052056403606004</v>
       </c>
       <c r="C40">
-        <v>0.3997412626289824</v>
+        <v>0.3997412693536371</v>
       </c>
       <c r="D40">
-        <v>-0.511537686468477</v>
+        <v>-0.5115470812553602</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.5349673812308837</v>
+        <v>-0.534974981072065</v>
       </c>
       <c r="C41">
-        <v>-0.1886130846467377</v>
+        <v>-0.1886133395726588</v>
       </c>
       <c r="D41">
-        <v>-0.3283128417821714</v>
+        <v>-0.3283216142582928</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.218944449923735</v>
+        <v>-1.218950182649962</v>
       </c>
       <c r="C42">
-        <v>0.4607592576681303</v>
+        <v>0.4607604547790085</v>
       </c>
       <c r="D42">
-        <v>-0.5480480932697009</v>
+        <v>-0.5480544317984115</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.066335767530139</v>
+        <v>-1.066342100264668</v>
       </c>
       <c r="C43">
-        <v>-0.008925539048531439</v>
+        <v>-0.008925731661805214</v>
       </c>
       <c r="D43">
-        <v>-0.1526178565645457</v>
+        <v>-0.1526267658333365</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4092611729911415</v>
+        <v>-0.4092686025197194</v>
       </c>
       <c r="C44">
-        <v>-0.3997519762062237</v>
+        <v>-0.3997524590235677</v>
       </c>
       <c r="D44">
-        <v>-0.3492905587353672</v>
+        <v>-0.3492989434760982</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9224581530049699</v>
+        <v>-0.9224664902471228</v>
       </c>
       <c r="C45">
-        <v>-0.6377123465568131</v>
+        <v>-0.6377108835459706</v>
       </c>
       <c r="D45">
-        <v>0.1824114739748975</v>
+        <v>0.1824046806725363</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.302040912855234</v>
+        <v>-1.302048870698959</v>
       </c>
       <c r="C46">
-        <v>-0.02519893456552835</v>
+        <v>-0.02519820304897835</v>
       </c>
       <c r="D46">
-        <v>0.07232761930540194</v>
+        <v>0.07231989368581132</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.8912256070348076</v>
+        <v>-0.8912337753353619</v>
       </c>
       <c r="C47">
-        <v>0.06704050795265815</v>
+        <v>0.06704054193575593</v>
       </c>
       <c r="D47">
-        <v>-0.4439315820433896</v>
+        <v>-0.4439403145990599</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.436662930174699</v>
+        <v>-1.436669382607064</v>
       </c>
       <c r="C48">
-        <v>-0.2538174010888904</v>
+        <v>-0.2538167250025481</v>
       </c>
       <c r="D48">
-        <v>0.3720362169315258</v>
+        <v>0.3720297070494055</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.843622011450468</v>
+        <v>-0.8436308068734937</v>
       </c>
       <c r="C49">
-        <v>0.03977807993227656</v>
+        <v>0.03977822212342208</v>
       </c>
       <c r="D49">
-        <v>-0.4093239768955899</v>
+        <v>-0.4093326721353941</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.145889682184526</v>
+        <v>-1.145897470305366</v>
       </c>
       <c r="C50">
-        <v>-0.1105171237064589</v>
+        <v>-0.1105178740667489</v>
       </c>
       <c r="D50">
-        <v>-0.04583882553948074</v>
+        <v>-0.04584584551195087</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.015414393239189</v>
+        <v>-1.015422246472814</v>
       </c>
       <c r="C51">
-        <v>0.1210942068367821</v>
+        <v>0.121094192624696</v>
       </c>
       <c r="D51">
-        <v>-0.2769981621365378</v>
+        <v>-0.2770061218797892</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.148200880328886</v>
+        <v>-1.14820875144726</v>
       </c>
       <c r="C52">
-        <v>0.3646760660860688</v>
+        <v>0.3646769346057902</v>
       </c>
       <c r="D52">
-        <v>-0.4882619342251325</v>
+        <v>-0.4882691361290407</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.230425784209727</v>
+        <v>-1.230434236027942</v>
       </c>
       <c r="C53">
-        <v>0.0763020855762091</v>
+        <v>0.07630190434963657</v>
       </c>
       <c r="D53">
-        <v>-0.1159281149725857</v>
+        <v>-0.1159360819341925</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.9043533268544709</v>
+        <v>-0.904360336915022</v>
       </c>
       <c r="C54">
-        <v>-0.1256840773659809</v>
+        <v>-0.1256838103365533</v>
       </c>
       <c r="D54">
-        <v>-0.1773820187197288</v>
+        <v>-0.1773911854041638</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1171300561264269</v>
+        <v>-0.117137001474197</v>
       </c>
       <c r="C55">
-        <v>-0.7327711244216427</v>
+        <v>-0.7327703385041168</v>
       </c>
       <c r="D55">
-        <v>-0.1805790916206173</v>
+        <v>-0.1805851528797733</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7736720822169414</v>
+        <v>0.7736640974934433</v>
       </c>
       <c r="C56">
-        <v>-0.9828139731085517</v>
+        <v>-0.9828133084494322</v>
       </c>
       <c r="D56">
-        <v>-0.7969224982206311</v>
+        <v>-0.7969268925251152</v>
+      </c>
+      <c r="E56">
+        <v>39</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.1057207845872056</v>
+        <v>-0.1057293188351854</v>
       </c>
       <c r="C57">
-        <v>0.1213894531823839</v>
+        <v>0.1213894942278244</v>
       </c>
       <c r="D57">
-        <v>-1.19805767699971</v>
+        <v>-1.198063275398816</v>
+      </c>
+      <c r="E57">
+        <v>39</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.470542216964248</v>
+        <v>1.470535945569543</v>
       </c>
       <c r="C58">
-        <v>-1.204199867525607</v>
+        <v>-1.204199982083344</v>
       </c>
       <c r="D58">
-        <v>-1.268662930533493</v>
+        <v>-1.268667804416689</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8825921002613599</v>
+        <v>0.8825853293076386</v>
       </c>
       <c r="C59">
-        <v>-0.3284299993006622</v>
+        <v>-0.3284283218335243</v>
       </c>
       <c r="D59">
-        <v>-1.726462009770472</v>
+        <v>-1.726465924429463</v>
+      </c>
+      <c r="E59">
+        <v>39</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6117651372389121</v>
+        <v>0.6117592485118796</v>
       </c>
       <c r="C60">
-        <v>-0.4434121980169844</v>
+        <v>-0.4434110822338247</v>
       </c>
       <c r="D60">
-        <v>-1.250828797074292</v>
+        <v>-1.250832403602807</v>
+      </c>
+      <c r="E60">
+        <v>39</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5497592468279169</v>
+        <v>0.5497514508676083</v>
       </c>
       <c r="C61">
-        <v>-0.7508606175727298</v>
+        <v>-0.7508600581333857</v>
       </c>
       <c r="D61">
-        <v>-0.8754403212748031</v>
+        <v>-0.8754443852795302</v>
+      </c>
+      <c r="E61">
+        <v>39</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.3341576364573857</v>
+        <v>0.3341504762664184</v>
       </c>
       <c r="C62">
-        <v>-0.09013489173368</v>
+        <v>-0.09013450300620679</v>
       </c>
       <c r="D62">
-        <v>-1.2491827334444</v>
+        <v>-1.249187608144088</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7597053897159545</v>
+        <v>0.75969860362591</v>
       </c>
       <c r="C63">
-        <v>-0.4346372524650198</v>
+        <v>-0.4346364660758915</v>
       </c>
       <c r="D63">
-        <v>-1.308780737350446</v>
+        <v>-1.308785248711281</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.8451664868400006</v>
+        <v>0.8451599686794175</v>
       </c>
       <c r="C64">
-        <v>-0.4546866912226594</v>
+        <v>-0.4546866861865502</v>
       </c>
       <c r="D64">
-        <v>-1.313476062698546</v>
+        <v>-1.313482283917842</v>
+      </c>
+      <c r="E64">
+        <v>39</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2275347445075211</v>
+        <v>0.2275276607394566</v>
       </c>
       <c r="C65">
-        <v>-0.5047207676950807</v>
+        <v>-0.5047197247165778</v>
       </c>
       <c r="D65">
-        <v>-0.9797266050000456</v>
+        <v>-0.9797310578519811</v>
+      </c>
+      <c r="E65">
+        <v>39</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8480365221303792</v>
+        <v>0.848028159027692</v>
       </c>
       <c r="C66">
-        <v>-0.4960217891323493</v>
+        <v>-0.496021486871167</v>
       </c>
       <c r="D66">
-        <v>-1.429102023739159</v>
+        <v>-1.429108239782804</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4667767704176272</v>
+        <v>-0.4667829533281416</v>
       </c>
       <c r="C67">
-        <v>-0.1818890646248234</v>
+        <v>-0.1818884087197324</v>
       </c>
       <c r="D67">
-        <v>-0.4219234080122978</v>
+        <v>-0.4219305698925903</v>
+      </c>
+      <c r="E67">
+        <v>39</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5284439872842348</v>
+        <v>0.5284366705217475</v>
       </c>
       <c r="C68">
-        <v>-0.2573269292871613</v>
+        <v>-0.2573260230948878</v>
       </c>
       <c r="D68">
-        <v>-1.31405553764953</v>
+        <v>-1.314060573251208</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7087318429773168</v>
+        <v>0.7087249474220813</v>
       </c>
       <c r="C69">
-        <v>-0.6618359577322672</v>
+        <v>-0.6618355154757987</v>
       </c>
       <c r="D69">
-        <v>-1.126627603070136</v>
+        <v>-1.126632963106594</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4398691205840517</v>
+        <v>0.4398617105585797</v>
       </c>
       <c r="C70">
-        <v>-0.7309403001850681</v>
+        <v>-0.7309389268965163</v>
       </c>
       <c r="D70">
-        <v>-0.819453598904453</v>
+        <v>-0.819458313958676</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9125682646869848</v>
+        <v>0.9125609377326441</v>
       </c>
       <c r="C71">
-        <v>-0.760327103319688</v>
+        <v>-0.7603263454918122</v>
       </c>
       <c r="D71">
-        <v>-1.247550176357246</v>
+        <v>-1.247555039693995</v>
+      </c>
+      <c r="E71">
+        <v>39</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.3014670683333826</v>
+        <v>-0.3014728302700295</v>
       </c>
       <c r="C72">
-        <v>-0.4814386242462619</v>
+        <v>-0.481438459524091</v>
       </c>
       <c r="D72">
-        <v>-0.260648736925539</v>
+        <v>-0.2606548317007633</v>
+      </c>
+      <c r="E72">
+        <v>39</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9556269715970021</v>
+        <v>0.9556208607924214</v>
       </c>
       <c r="C73">
-        <v>-0.5991727386206626</v>
+        <v>-0.5991713353119402</v>
       </c>
       <c r="D73">
-        <v>-1.405528171468902</v>
+        <v>-1.405532431776515</v>
+      </c>
+      <c r="E73">
+        <v>39</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6822181228829713</v>
+        <v>0.6822109100746124</v>
       </c>
       <c r="C74">
-        <v>-0.9092380108268612</v>
+        <v>-0.9092373743307324</v>
       </c>
       <c r="D74">
-        <v>-0.7949819146871921</v>
+        <v>-0.7949877297115264</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5464870959978783</v>
+        <v>0.5464809349048448</v>
       </c>
       <c r="C75">
-        <v>-0.6253570397185676</v>
+        <v>-0.6253565717097892</v>
       </c>
       <c r="D75">
-        <v>-0.935451578182139</v>
+        <v>-0.9354570750109916</v>
+      </c>
+      <c r="E75">
+        <v>39</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4521684533503707</v>
+        <v>0.4521625747493255</v>
       </c>
       <c r="C76">
-        <v>-0.2630713614351393</v>
+        <v>-0.263070092335579</v>
       </c>
       <c r="D76">
-        <v>-1.405351424115045</v>
+        <v>-1.40535675038631</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.2226162754282744</v>
+        <v>0.2226091002025933</v>
       </c>
       <c r="C77">
-        <v>-0.4338631892842962</v>
+        <v>-0.4338629763997705</v>
       </c>
       <c r="D77">
-        <v>-0.7608835198906583</v>
+        <v>-0.7608915438385011</v>
+      </c>
+      <c r="E77">
+        <v>39</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.2797901572713763</v>
+        <v>0.279782328014116</v>
       </c>
       <c r="C78">
-        <v>-0.2341766382912364</v>
+        <v>-0.2341755337567742</v>
       </c>
       <c r="D78">
-        <v>-1.069530719841569</v>
+        <v>-1.069536637768112</v>
+      </c>
+      <c r="E78">
+        <v>39</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1465046482924784</v>
+        <v>0.1464984263753694</v>
       </c>
       <c r="C79">
-        <v>-0.4979937486186501</v>
+        <v>-0.4979929142109161</v>
       </c>
       <c r="D79">
-        <v>-0.6141528543767981</v>
+        <v>-0.6141559613277597</v>
+      </c>
+      <c r="E79">
+        <v>39</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.2239158613343039</v>
+        <v>-0.2239232683414976</v>
       </c>
       <c r="C80">
-        <v>-1.460495805993736</v>
+        <v>-1.460494367961048</v>
       </c>
       <c r="D80">
-        <v>0.3801693155087177</v>
+        <v>0.380164755403805</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.07015757318579197</v>
+        <v>-0.07016594540614629</v>
       </c>
       <c r="C81">
-        <v>0.1664644149753788</v>
+        <v>0.166465303610547</v>
       </c>
       <c r="D81">
-        <v>-1.146590272141821</v>
+        <v>-1.146596833272775</v>
+      </c>
+      <c r="E81">
+        <v>39</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5610377212620046</v>
+        <v>0.5610300761562342</v>
       </c>
       <c r="C82">
-        <v>-0.7014894618954862</v>
+        <v>-0.7014886895490521</v>
       </c>
       <c r="D82">
-        <v>-0.9026435143962992</v>
+        <v>-0.902648377101853</v>
+      </c>
+      <c r="E82">
+        <v>39</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.214365651484898</v>
+        <v>1.214358566637894</v>
       </c>
       <c r="C83">
-        <v>-0.7007113560096523</v>
+        <v>-0.7007113881613298</v>
       </c>
       <c r="D83">
-        <v>-1.260856663488129</v>
+        <v>-1.260862903871968</v>
+      </c>
+      <c r="E83">
+        <v>39</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5746172793276363</v>
+        <v>0.5746100778996271</v>
       </c>
       <c r="C84">
-        <v>-0.7300938536412456</v>
+        <v>-0.7300933011213204</v>
       </c>
       <c r="D84">
-        <v>-0.8892348564066672</v>
+        <v>-0.8892403505353497</v>
+      </c>
+      <c r="E84">
+        <v>39</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.990745428245476</v>
+        <v>0.9907381671728958</v>
       </c>
       <c r="C85">
-        <v>-0.6535399160633741</v>
+        <v>-0.6535393723153829</v>
       </c>
       <c r="D85">
-        <v>-1.295364671036763</v>
+        <v>-1.295370435626241</v>
+      </c>
+      <c r="E85">
+        <v>39</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4016232433056584</v>
+        <v>0.4016175099831732</v>
       </c>
       <c r="C86">
-        <v>-0.074548119146152</v>
+        <v>-0.07454637664830654</v>
       </c>
       <c r="D86">
-        <v>-1.559566770127117</v>
+        <v>-1.559571150989745</v>
+      </c>
+      <c r="E86">
+        <v>39</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.199434559948828</v>
+        <v>1.199427532099297</v>
       </c>
       <c r="C87">
-        <v>-0.5353145308640607</v>
+        <v>-0.5353142463584408</v>
       </c>
       <c r="D87">
-        <v>-1.693079633902427</v>
+        <v>-1.6930857167543</v>
+      </c>
+      <c r="E87">
+        <v>39</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.540698515506097</v>
+        <v>1.540693978851784</v>
       </c>
       <c r="C88">
-        <v>0.3643899895481238</v>
+        <v>0.3643924388262568</v>
       </c>
       <c r="D88">
-        <v>-2.928710277498651</v>
+        <v>-2.928712967820033</v>
+      </c>
+      <c r="E88">
+        <v>39</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9877274086334298</v>
+        <v>0.9877212597478008</v>
       </c>
       <c r="C89">
-        <v>-0.651512023038656</v>
+        <v>-0.6515115583746256</v>
       </c>
       <c r="D89">
-        <v>-1.347003856797903</v>
+        <v>-1.347008763664259</v>
+      </c>
+      <c r="E89">
+        <v>39</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8227604338644805</v>
+        <v>0.8227539493265098</v>
       </c>
       <c r="C90">
-        <v>-0.8186911017941212</v>
+        <v>-0.8186901127402479</v>
       </c>
       <c r="D90">
-        <v>-1.046691689856291</v>
+        <v>-1.046696881563877</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5270583132464877</v>
+        <v>0.5270517989983859</v>
       </c>
       <c r="C91">
-        <v>0.1612656795182065</v>
+        <v>0.1612672732068337</v>
       </c>
       <c r="D91">
-        <v>-1.740293664986423</v>
+        <v>-1.740298605984967</v>
+      </c>
+      <c r="E91">
+        <v>39</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.5483394417318027</v>
+        <v>-0.5483462416682101</v>
       </c>
       <c r="C92">
-        <v>-0.2746568134700349</v>
+        <v>-0.2746580165945949</v>
       </c>
       <c r="D92">
-        <v>-0.510462677256571</v>
+        <v>-0.510470509388071</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.8773391619269568</v>
+        <v>-0.877345405006233</v>
       </c>
       <c r="C93">
-        <v>0.2460202710210646</v>
+        <v>0.2460217146328502</v>
       </c>
       <c r="D93">
-        <v>-0.7813405300514117</v>
+        <v>-0.7813475442713682</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.61178252376848</v>
+        <v>-0.6117886612845187</v>
       </c>
       <c r="C94">
-        <v>-0.2299488707814208</v>
+        <v>-0.2299474940959</v>
       </c>
       <c r="D94">
-        <v>-0.4105415461490008</v>
+        <v>-0.4105464084418957</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.8642534813318713</v>
+        <v>-0.864260546038065</v>
       </c>
       <c r="C95">
-        <v>-0.3258791155342345</v>
+        <v>-0.3258793093758985</v>
       </c>
       <c r="D95">
-        <v>-0.2229374888961505</v>
+        <v>-0.2229448232228621</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2623442121818336</v>
+        <v>-0.2623506018377276</v>
       </c>
       <c r="C96">
-        <v>-0.9181297267099773</v>
+        <v>-0.9181291410401122</v>
       </c>
       <c r="D96">
-        <v>-0.1247472224889631</v>
+        <v>-0.1247526527788253</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.7795610424580629</v>
+        <v>-0.7795677832044003</v>
       </c>
       <c r="C97">
-        <v>-0.2906073249247856</v>
+        <v>-0.2906077305947344</v>
       </c>
       <c r="D97">
-        <v>-0.3543170712428693</v>
+        <v>-0.3543252575977227</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2744644513212623</v>
+        <v>-0.2744710940659566</v>
       </c>
       <c r="C98">
-        <v>-0.3251159289011346</v>
+        <v>-0.325116155138256</v>
       </c>
       <c r="D98">
-        <v>-0.7361821201031834</v>
+        <v>-0.7361904511307447</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.185947638209128</v>
+        <v>-1.185955504223487</v>
       </c>
       <c r="C99">
-        <v>-0.2858877592267868</v>
+        <v>-0.2858873301684196</v>
       </c>
       <c r="D99">
-        <v>0.02246179351373551</v>
+        <v>0.02245457058834482</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8539766660220414</v>
+        <v>-0.8539834580778933</v>
       </c>
       <c r="C100">
-        <v>-0.08940915489749962</v>
+        <v>-0.0894091567238342</v>
       </c>
       <c r="D100">
-        <v>-0.4020000575600217</v>
+        <v>-0.4020077872571433</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.6760225631779639</v>
+        <v>-0.6760294699164577</v>
       </c>
       <c r="C101">
-        <v>-0.2592508901303716</v>
+        <v>-0.2592509257295095</v>
       </c>
       <c r="D101">
-        <v>-0.4075728140418954</v>
+        <v>-0.407580884658579</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.5837006492365903</v>
+        <v>-0.5837059292795861</v>
       </c>
       <c r="C102">
-        <v>-0.3213723470748949</v>
+        <v>-0.3213713494351842</v>
       </c>
       <c r="D102">
-        <v>-0.455175617800024</v>
+        <v>-0.4551829169643805</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.7208721551407383</v>
+        <v>-0.7208796696089933</v>
       </c>
       <c r="C103">
-        <v>-0.0479598969905653</v>
+        <v>-0.04795970964278989</v>
       </c>
       <c r="D103">
-        <v>-0.6952635347831341</v>
+        <v>-0.6952701981140648</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.9108200340599724</v>
+        <v>-0.9108264203440936</v>
       </c>
       <c r="C104">
-        <v>-0.1982948234252136</v>
+        <v>-0.1982947349283142</v>
       </c>
       <c r="D104">
-        <v>-0.3220829927495654</v>
+        <v>-0.3220906387207781</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.825176929417366</v>
+        <v>-0.8251834881267696</v>
       </c>
       <c r="C105">
-        <v>-0.1386497125885128</v>
+        <v>-0.1386498202087575</v>
       </c>
       <c r="D105">
-        <v>-0.3875981366944531</v>
+        <v>-0.3876060934718212</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.041604140645353</v>
+        <v>-1.041611210980157</v>
       </c>
       <c r="C106">
-        <v>0.0933463407526598</v>
+        <v>0.09334632791882491</v>
       </c>
       <c r="D106">
-        <v>-0.5330078200715918</v>
+        <v>-0.5330150000873171</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-1.281620728731599</v>
+        <v>-1.281626322620911</v>
       </c>
       <c r="C107">
-        <v>-0.4808913533633473</v>
+        <v>-0.4808916968129294</v>
       </c>
       <c r="D107">
-        <v>0.3167887182234076</v>
+        <v>0.3167834732367007</v>
+      </c>
+      <c r="E107">
+        <v>40</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.91226877589906</v>
+        <v>-0.9122755408784465</v>
       </c>
       <c r="C108">
-        <v>-0.03705592247763412</v>
+        <v>-0.03705624667485208</v>
       </c>
       <c r="D108">
-        <v>-0.4619426735057111</v>
+        <v>-0.4619510504659057</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.6781075151949507</v>
+        <v>-0.6781151253806093</v>
       </c>
       <c r="C109">
-        <v>-0.4030645688512409</v>
+        <v>-0.4030641371240968</v>
       </c>
       <c r="D109">
-        <v>-0.4488497727494842</v>
+        <v>-0.4488574243231778</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.124436940286624</v>
+        <v>-1.124443881334594</v>
       </c>
       <c r="C110">
-        <v>0.03115807357466871</v>
+        <v>0.03115843461510071</v>
       </c>
       <c r="D110">
-        <v>-0.3106537887405152</v>
+        <v>-0.3106608612111096</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.3476518458772433</v>
+        <v>-0.3476583425603181</v>
       </c>
       <c r="C111">
-        <v>-0.4086934511269071</v>
+        <v>-0.4086937332481297</v>
       </c>
       <c r="D111">
-        <v>-0.5041138706038407</v>
+        <v>-0.5041215415555892</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.8414757813416931</v>
+        <v>-0.8414836890100872</v>
       </c>
       <c r="C112">
-        <v>-0.541952360561899</v>
+        <v>-0.5419514579459755</v>
       </c>
       <c r="D112">
-        <v>-0.05603693122416328</v>
+        <v>-0.05604276632832192</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.495538634929097</v>
+        <v>-1.495544854675563</v>
       </c>
       <c r="C113">
-        <v>-0.1386739369934258</v>
+        <v>-0.1386724908199429</v>
       </c>
       <c r="D113">
-        <v>0.1403446958026305</v>
+        <v>0.1403400064734739</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.016996001089429</v>
+        <v>-1.017002232213874</v>
       </c>
       <c r="C114">
-        <v>-0.1201124903478642</v>
+        <v>-0.120112966655075</v>
       </c>
       <c r="D114">
-        <v>-0.2169945933805266</v>
+        <v>-0.2170013001265468</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.7343795866399132</v>
+        <v>-0.7343832857059166</v>
       </c>
       <c r="C115">
-        <v>0.09503465921254683</v>
+        <v>0.09503544540983699</v>
       </c>
       <c r="D115">
-        <v>-0.8544675930679899</v>
+        <v>-0.8544707906611084</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.2311368059028112</v>
+        <v>-0.2311427117934706</v>
       </c>
       <c r="C116">
-        <v>-0.5475960690423322</v>
+        <v>-0.5475966854676495</v>
       </c>
       <c r="D116">
-        <v>-0.4802702903720361</v>
+        <v>-0.4802773002932461</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.112219622707566</v>
+        <v>-1.112227352181186</v>
       </c>
       <c r="C117">
-        <v>0.02692210723575916</v>
+        <v>0.02692256855908104</v>
       </c>
       <c r="D117">
-        <v>-0.3968751363642832</v>
+        <v>-0.3968814035458783</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.227109151945937</v>
+        <v>-1.227117069109372</v>
       </c>
       <c r="C118">
-        <v>-0.8607936768287322</v>
+        <v>-0.8607935896881468</v>
       </c>
       <c r="D118">
-        <v>0.602596984365205</v>
+        <v>0.6025914896395408</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.9584638316719507</v>
+        <v>-0.9584702328731474</v>
       </c>
       <c r="C119">
-        <v>-0.4566865718270495</v>
+        <v>-0.4566869470275952</v>
       </c>
       <c r="D119">
-        <v>-0.08072579898198598</v>
+        <v>-0.0807326163823682</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.5600721307972507</v>
+        <v>-0.5600786948763988</v>
       </c>
       <c r="C120">
-        <v>-0.4628948335006274</v>
+        <v>-0.4628944419212482</v>
       </c>
       <c r="D120">
-        <v>-0.4393431976717733</v>
+        <v>-0.4393499879583592</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-1.193215623700228</v>
+        <v>-1.193220744813378</v>
       </c>
       <c r="C121">
-        <v>-0.1754943682366503</v>
+        <v>-0.1754939793386339</v>
       </c>
       <c r="D121">
-        <v>-0.2860158007787896</v>
+        <v>-0.2860208655719687</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.6594394432264982</v>
+        <v>-0.6594449595840746</v>
       </c>
       <c r="C122">
-        <v>0.309140191162472</v>
+        <v>0.3091400334372423</v>
       </c>
       <c r="D122">
-        <v>-1.114912304548266</v>
+        <v>-1.114919000030053</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.00569703900990326</v>
+        <v>-0.005704456690740822</v>
       </c>
       <c r="C123">
-        <v>-0.3147728088353878</v>
+        <v>-0.3147724867086589</v>
       </c>
       <c r="D123">
-        <v>-1.02715337399817</v>
+        <v>-1.027160102242902</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.8924578363062915</v>
+        <v>-0.8924646375392462</v>
       </c>
       <c r="C124">
-        <v>-0.4477480089132248</v>
+        <v>-0.4477484033940211</v>
       </c>
       <c r="D124">
-        <v>0.01655436398906523</v>
+        <v>0.01654790363884967</v>
+      </c>
+      <c r="E124">
+        <v>41</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.3223830138915132</v>
+        <v>-0.322390794598701</v>
       </c>
       <c r="C125">
-        <v>0.04588860044767484</v>
+        <v>0.04588808718348469</v>
       </c>
       <c r="D125">
-        <v>-0.8960370979590772</v>
+        <v>-0.8960445450441232</v>
+      </c>
+      <c r="E125">
+        <v>41</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.3342213962036709</v>
+        <v>-0.3342259911369874</v>
       </c>
       <c r="C126">
-        <v>-0.5055036831476649</v>
+        <v>-0.5055038902085282</v>
       </c>
       <c r="D126">
-        <v>-0.4780070244632296</v>
+        <v>-0.4780145933815142</v>
+      </c>
+      <c r="E126">
+        <v>41</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.9736005455973705</v>
+        <v>-0.9736082621601896</v>
       </c>
       <c r="C127">
-        <v>-0.002748014858949044</v>
+        <v>-0.002747710876220166</v>
       </c>
       <c r="D127">
-        <v>-0.2261429311373611</v>
+        <v>-0.2261485051459146</v>
+      </c>
+      <c r="E127">
+        <v>41</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-1.718788105662841</v>
+        <v>-1.718795787031557</v>
       </c>
       <c r="C128">
-        <v>-0.1095355125328193</v>
+        <v>-0.1095348907786568</v>
       </c>
       <c r="D128">
-        <v>0.4403439008872922</v>
+        <v>0.4403370176606847</v>
+      </c>
+      <c r="E128">
+        <v>41</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.563692515891473</v>
+        <v>-0.5636994267575468</v>
       </c>
       <c r="C129">
-        <v>-0.2595445031618623</v>
+        <v>-0.2595448897808166</v>
       </c>
       <c r="D129">
-        <v>-0.3619175489701523</v>
+        <v>-0.361924620155969</v>
+      </c>
+      <c r="E129">
+        <v>41</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.4628372470449869</v>
+        <v>-0.4628422823321925</v>
       </c>
       <c r="C130">
-        <v>-0.2554262094576559</v>
+        <v>-0.2554262793240935</v>
       </c>
       <c r="D130">
-        <v>-0.5329290044961845</v>
+        <v>-0.5329341200994555</v>
+      </c>
+      <c r="E130">
+        <v>41</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1638154149838131</v>
+        <v>0.1638090494866137</v>
       </c>
       <c r="C131">
-        <v>-0.2063032897461272</v>
+        <v>-0.2063028753091265</v>
       </c>
       <c r="D131">
-        <v>-0.9282608523149327</v>
+        <v>-0.928266654263493</v>
+      </c>
+      <c r="E131">
+        <v>41</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.6494662466593565</v>
+        <v>-0.6494739410157682</v>
       </c>
       <c r="C132">
-        <v>-0.4136606005921207</v>
+        <v>-0.4136608597707785</v>
       </c>
       <c r="D132">
-        <v>-0.2846483312387595</v>
+        <v>-0.2846551860812553</v>
+      </c>
+      <c r="E132">
+        <v>41</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.388931821000269</v>
+        <v>-0.3889382258554483</v>
       </c>
       <c r="C133">
-        <v>-0.1964139724768103</v>
+        <v>-0.1964125713130294</v>
       </c>
       <c r="D133">
-        <v>-0.5470512669390116</v>
+        <v>-0.5470583203101326</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.4705362482929697</v>
+        <v>-0.4705435984268165</v>
       </c>
       <c r="C134">
-        <v>-0.1242801290789262</v>
+        <v>-0.1242803235877414</v>
       </c>
       <c r="D134">
-        <v>-0.5828016177522212</v>
+        <v>-0.5828082748231451</v>
+      </c>
+      <c r="E134">
+        <v>41</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.035806331736202</v>
+        <v>-1.035813672526133</v>
       </c>
       <c r="C135">
-        <v>0.04890423754077866</v>
+        <v>0.04890328831189328</v>
       </c>
       <c r="D135">
-        <v>-0.3401733358544424</v>
+        <v>-0.3401803883621091</v>
+      </c>
+      <c r="E135">
+        <v>41</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.9424449555335181</v>
+        <v>-0.9424529349128407</v>
       </c>
       <c r="C136">
-        <v>-0.2584601911513718</v>
+        <v>-0.2584601194994031</v>
       </c>
       <c r="D136">
-        <v>-0.1898053121611594</v>
+        <v>-0.1898114771984177</v>
+      </c>
+      <c r="E136">
+        <v>41</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.9978648563864974</v>
+        <v>-0.9978729468882551</v>
       </c>
       <c r="C137">
-        <v>-0.5306280569917065</v>
+        <v>-0.5306268498224265</v>
       </c>
       <c r="D137">
-        <v>0.2124026750448829</v>
+        <v>0.2123936055046632</v>
+      </c>
+      <c r="E137">
+        <v>41</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-1.518358097623933</v>
+        <v>-1.518367151857019</v>
       </c>
       <c r="C138">
-        <v>-0.03231454850238313</v>
+        <v>-0.03231390230450915</v>
       </c>
       <c r="D138">
-        <v>0.1241940109435076</v>
+        <v>0.1241864209760517</v>
+      </c>
+      <c r="E138">
+        <v>41</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-2.094671525876285</v>
+        <v>-2.094677451006035</v>
       </c>
       <c r="C139">
-        <v>0.7365064123931637</v>
+        <v>0.7365078360917561</v>
       </c>
       <c r="D139">
-        <v>-0.1375562833773546</v>
+        <v>-0.1375615835402244</v>
+      </c>
+      <c r="E139">
+        <v>41</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.3616700764000474</v>
+        <v>-0.3616751831719197</v>
       </c>
       <c r="C140">
-        <v>-0.3935010044928162</v>
+        <v>-0.3935010552523814</v>
       </c>
       <c r="D140">
-        <v>-0.4933115234219277</v>
+        <v>-0.4933179573695641</v>
+      </c>
+      <c r="E140">
+        <v>41</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.3293148640167406</v>
+        <v>-0.3293204257794989</v>
       </c>
       <c r="C141">
-        <v>-0.08869727833118557</v>
+        <v>-0.0886971873589375</v>
       </c>
       <c r="D141">
-        <v>-0.7182145138180134</v>
+        <v>-0.7182228739086204</v>
+      </c>
+      <c r="E141">
+        <v>41</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.8520417894302681</v>
+        <v>-0.8520472902360112</v>
       </c>
       <c r="C142">
-        <v>0.04807247474462772</v>
+        <v>0.04807298245402336</v>
       </c>
       <c r="D142">
-        <v>-0.5030244067828785</v>
+        <v>-0.5030306783821381</v>
+      </c>
+      <c r="E142">
+        <v>41</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.7026041057062337</v>
+        <v>-0.7026108377943915</v>
       </c>
       <c r="C143">
-        <v>-0.6185837686688508</v>
+        <v>-0.6185843365897786</v>
       </c>
       <c r="D143">
-        <v>-0.03304559802170143</v>
+        <v>-0.03305124106652976</v>
+      </c>
+      <c r="E143">
+        <v>41</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.5086507334892605</v>
+        <v>-0.5086556093444253</v>
       </c>
       <c r="C144">
-        <v>-0.3585729093265791</v>
+        <v>-0.358573625140922</v>
       </c>
       <c r="D144">
-        <v>-0.2908886463145202</v>
+        <v>-0.2908956750816752</v>
+      </c>
+      <c r="E144">
+        <v>41</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.4528709171321105</v>
+        <v>-0.4528784438090275</v>
       </c>
       <c r="C145">
-        <v>-0.5701424471303843</v>
+        <v>-0.570142431837418</v>
       </c>
       <c r="D145">
-        <v>-0.106501872789028</v>
+        <v>-0.1065080051921344</v>
+      </c>
+      <c r="E145">
+        <v>41</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.6432720233675985</v>
+        <v>-0.6432786291166988</v>
       </c>
       <c r="C146">
-        <v>-0.1527063946299316</v>
+        <v>-0.1527066427809674</v>
       </c>
       <c r="D146">
-        <v>-0.4225634193311215</v>
+        <v>-0.4225707248282563</v>
+      </c>
+      <c r="E146">
+        <v>41</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.3903145454852996</v>
+        <v>-0.3903223329276218</v>
       </c>
       <c r="C147">
-        <v>-0.5116975760611554</v>
+        <v>-0.5116977023116842</v>
       </c>
       <c r="D147">
-        <v>-0.251943618472772</v>
+        <v>-0.2519511643731025</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.3761938322440332</v>
+        <v>-0.3762007773281408</v>
       </c>
       <c r="C148">
-        <v>-0.3875558272174101</v>
+        <v>-0.3875562126162393</v>
       </c>
       <c r="D148">
-        <v>-0.4448602853071147</v>
+        <v>-0.4448678126504345</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.3802145197541337</v>
+        <v>-0.3802204388979713</v>
       </c>
       <c r="C149">
-        <v>-0.5009897138095809</v>
+        <v>-0.5009898342136584</v>
       </c>
       <c r="D149">
-        <v>-0.3270603287942794</v>
+        <v>-0.3270675536847745</v>
+      </c>
+      <c r="E149">
+        <v>41</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.799678308340814</v>
+        <v>-0.7996846345202738</v>
       </c>
       <c r="C150">
-        <v>-0.3887221622666402</v>
+        <v>-0.3887223544132066</v>
       </c>
       <c r="D150">
-        <v>-0.0711235607939156</v>
+        <v>-0.07113130687954303</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.9182446040514973</v>
+        <v>-0.918251946813149</v>
       </c>
       <c r="C151">
-        <v>-0.4815777288574192</v>
+        <v>-0.4815784441214557</v>
       </c>
       <c r="D151">
-        <v>0.03424288646233453</v>
+        <v>0.03423656604949088</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.9291251668461229</v>
+        <v>-0.9291317319154103</v>
       </c>
       <c r="C152">
-        <v>0.2034973435674489</v>
+        <v>0.2034966858974034</v>
       </c>
       <c r="D152">
-        <v>-0.6044141638530711</v>
+        <v>-0.6044212738756618</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.815678899651266</v>
+        <v>-1.815688352639788</v>
       </c>
       <c r="C153">
-        <v>0.1786451160000997</v>
+        <v>0.1786451435190995</v>
       </c>
       <c r="D153">
-        <v>0.188390667895502</v>
+        <v>0.1883829312968514</v>
+      </c>
+      <c r="E153">
+        <v>41</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.106506376687368</v>
+        <v>-1.106513739092743</v>
       </c>
       <c r="C154">
-        <v>-0.3140809757219629</v>
+        <v>-0.3140811446909897</v>
       </c>
       <c r="D154">
-        <v>-0.006464469031047082</v>
+        <v>-0.006470981014396693</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6857151931724119</v>
+        <v>0.6857086193876886</v>
       </c>
       <c r="C155">
-        <v>-0.1986691081790485</v>
+        <v>-0.1986687993141379</v>
       </c>
       <c r="D155">
-        <v>-1.451735719785568</v>
+        <v>-1.451742341910043</v>
+      </c>
+      <c r="E155">
+        <v>42</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.8898406763254401</v>
+        <v>-0.8898473231339203</v>
       </c>
       <c r="C156">
-        <v>-0.1819051690095569</v>
+        <v>-0.1819038237763036</v>
       </c>
       <c r="D156">
-        <v>-0.2095215606037941</v>
+        <v>-0.2095269834404521</v>
+      </c>
+      <c r="E156">
+        <v>42</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.2006961742917854</v>
+        <v>0.2006881852184118</v>
       </c>
       <c r="C157">
-        <v>-0.5590696801778048</v>
+        <v>-0.5590685691187859</v>
       </c>
       <c r="D157">
-        <v>-0.6716483627715431</v>
+        <v>-0.6716545204004298</v>
+      </c>
+      <c r="E157">
+        <v>42</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-1.081828279869177</v>
+        <v>-1.081836913574109</v>
       </c>
       <c r="C158">
-        <v>-0.1772993300996207</v>
+        <v>-0.1772972889081155</v>
       </c>
       <c r="D158">
-        <v>0.05664918316557127</v>
+        <v>0.0566419049810058</v>
+      </c>
+      <c r="E158">
+        <v>42</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4087712721763663</v>
+        <v>0.4087643471337367</v>
       </c>
       <c r="C159">
-        <v>-0.7529037512757817</v>
+        <v>-0.7529030868105107</v>
       </c>
       <c r="D159">
-        <v>-0.765593012576444</v>
+        <v>-0.7655997807618899</v>
+      </c>
+      <c r="E159">
+        <v>42</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4794350201322299</v>
+        <v>0.4794263135869042</v>
       </c>
       <c r="C160">
-        <v>-0.2133389848773372</v>
+        <v>-0.2133370297263058</v>
       </c>
       <c r="D160">
-        <v>-1.280109691578354</v>
+        <v>-1.280115142378767</v>
+      </c>
+      <c r="E160">
+        <v>42</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.02111122714696234</v>
+        <v>0.02110268385978686</v>
       </c>
       <c r="C161">
-        <v>-0.6788893256665832</v>
+        <v>-0.678888327242845</v>
       </c>
       <c r="D161">
-        <v>-0.4457979779190733</v>
+        <v>-0.4458047023921988</v>
+      </c>
+      <c r="E161">
+        <v>42</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.03506985440117483</v>
+        <v>-0.03507648331541047</v>
       </c>
       <c r="C162">
-        <v>-0.8062079381734828</v>
+        <v>-0.8062070397637524</v>
       </c>
       <c r="D162">
-        <v>-0.3000830670920094</v>
+        <v>-0.3000890403714319</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1614907194345584</v>
+        <v>0.1614860912308619</v>
       </c>
       <c r="C163">
-        <v>-0.6163016359819664</v>
+        <v>-0.6163003679963844</v>
       </c>
       <c r="D163">
-        <v>-0.6091211593237358</v>
+        <v>-0.6091274104331161</v>
+      </c>
+      <c r="E163">
+        <v>42</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.02021952901622504</v>
+        <v>0.0202125176403164</v>
       </c>
       <c r="C164">
-        <v>-0.6158917000832314</v>
+        <v>-0.61589036840791</v>
       </c>
       <c r="D164">
-        <v>-0.4738878198351946</v>
+        <v>-0.4738941693557386</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4410957124902759</v>
+        <v>0.4410894333132404</v>
       </c>
       <c r="C165">
-        <v>-0.9832122328852219</v>
+        <v>-0.9832112786580538</v>
       </c>
       <c r="D165">
-        <v>-0.4452944679450015</v>
+        <v>-0.4453011224229774</v>
+      </c>
+      <c r="E165">
+        <v>42</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.2465225035262804</v>
+        <v>-0.2465282708197204</v>
       </c>
       <c r="C166">
-        <v>-0.5347163391993728</v>
+        <v>-0.5347150710787941</v>
       </c>
       <c r="D166">
-        <v>-0.1832604011567614</v>
+        <v>-0.1832658909264727</v>
+      </c>
+      <c r="E166">
+        <v>42</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.2174249139668415</v>
+        <v>0.2174180099584413</v>
       </c>
       <c r="C167">
-        <v>-0.6166536075336931</v>
+        <v>-0.616652609372796</v>
       </c>
       <c r="D167">
-        <v>-0.7001985268088931</v>
+        <v>-0.7002045252559382</v>
+      </c>
+      <c r="E167">
+        <v>42</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1604180799470094</v>
+        <v>0.1604131965040223</v>
       </c>
       <c r="C168">
-        <v>-0.7551598018782495</v>
+        <v>-0.7551595363564338</v>
       </c>
       <c r="D168">
-        <v>-0.6011052269827224</v>
+        <v>-0.6011101418322724</v>
+      </c>
+      <c r="E168">
+        <v>42</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.02153145553905367</v>
+        <v>0.02152589424411122</v>
       </c>
       <c r="C169">
-        <v>-0.22457678835092</v>
+        <v>-0.2245754191140536</v>
       </c>
       <c r="D169">
-        <v>-0.9007074583773802</v>
+        <v>-0.900713881296858</v>
+      </c>
+      <c r="E169">
+        <v>42</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.9386479491525375</v>
+        <v>-0.9386563946967488</v>
       </c>
       <c r="C170">
-        <v>-0.1189447554280038</v>
+        <v>-0.118943366243697</v>
       </c>
       <c r="D170">
-        <v>-0.2155115700752334</v>
+        <v>-0.215518351038786</v>
+      </c>
+      <c r="E170">
+        <v>42</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.4477674974279626</v>
+        <v>-0.4477763693556627</v>
       </c>
       <c r="C171">
-        <v>-0.3029661373521144</v>
+        <v>-0.3029637619889205</v>
       </c>
       <c r="D171">
-        <v>-0.5286457811296127</v>
+        <v>-0.5286523092216049</v>
+      </c>
+      <c r="E171">
+        <v>42</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1854168945132915</v>
+        <v>0.1854104981578693</v>
       </c>
       <c r="C172">
-        <v>-0.5285167833568888</v>
+        <v>-0.5285163205444314</v>
       </c>
       <c r="D172">
-        <v>-0.8084485250239872</v>
+        <v>-0.8084553041867522</v>
+      </c>
+      <c r="E172">
+        <v>42</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1731296258681201</v>
+        <v>0.173122741537431</v>
       </c>
       <c r="C173">
-        <v>-0.6875190941060807</v>
+        <v>-0.6875184121637656</v>
       </c>
       <c r="D173">
-        <v>-0.5510932683371066</v>
+        <v>-0.5510999473651399</v>
+      </c>
+      <c r="E173">
+        <v>42</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.5919970126005341</v>
+        <v>-0.5920038332188432</v>
       </c>
       <c r="C174">
-        <v>-0.05263646329984956</v>
+        <v>-0.05263542675250932</v>
       </c>
       <c r="D174">
-        <v>-0.5756693910855204</v>
+        <v>-0.5756755412293447</v>
+      </c>
+      <c r="E174">
+        <v>42</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.6748777870976174</v>
+        <v>-0.6748842458036378</v>
       </c>
       <c r="C175">
-        <v>-0.2484233166655554</v>
+        <v>-0.2484218671739196</v>
       </c>
       <c r="D175">
-        <v>-0.2739132030069492</v>
+        <v>-0.2739190177216522</v>
+      </c>
+      <c r="E175">
+        <v>42</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4045064185366081</v>
+        <v>0.4044991988376879</v>
       </c>
       <c r="C176">
-        <v>-0.7602374673202009</v>
+        <v>-0.7602350132767617</v>
       </c>
       <c r="D176">
-        <v>-0.8724426724110597</v>
+        <v>-0.8724467510237524</v>
+      </c>
+      <c r="E176">
+        <v>42</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.4395299742930057</v>
+        <v>0.4395242773364466</v>
       </c>
       <c r="C177">
-        <v>-0.7628422997771661</v>
+        <v>-0.7628418123529588</v>
       </c>
       <c r="D177">
-        <v>-0.6334762045407856</v>
+        <v>-0.6334833705842227</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1191511504198692</v>
+        <v>0.1191461050144879</v>
       </c>
       <c r="C178">
-        <v>-0.6168644805624739</v>
+        <v>-0.6168638499578927</v>
       </c>
       <c r="D178">
-        <v>-0.5679974523113911</v>
+        <v>-0.568004286867865</v>
+      </c>
+      <c r="E178">
+        <v>42</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.7351687468650147</v>
+        <v>-0.7351795804155775</v>
       </c>
       <c r="C179">
-        <v>-0.7505978492906292</v>
+        <v>-0.7505959367837315</v>
       </c>
       <c r="D179">
-        <v>0.3184466663013186</v>
+        <v>0.3184396526596499</v>
+      </c>
+      <c r="E179">
+        <v>42</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.208580608535077</v>
+        <v>-0.2085883891989334</v>
       </c>
       <c r="C180">
-        <v>-1.015190254431286</v>
+        <v>-1.015188848374011</v>
       </c>
       <c r="D180">
-        <v>0.1600608655154783</v>
+        <v>0.1600540602450042</v>
+      </c>
+      <c r="E180">
+        <v>42</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.8899559837219455</v>
+        <v>-0.8899631458477087</v>
       </c>
       <c r="C181">
-        <v>-0.4367586441426735</v>
+        <v>-0.4367580441439728</v>
       </c>
       <c r="D181">
-        <v>0.1171583471583835</v>
+        <v>0.1171512396510797</v>
+      </c>
+      <c r="E181">
+        <v>42</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1243270262668383</v>
+        <v>0.1243210527683609</v>
       </c>
       <c r="C182">
-        <v>-0.6428043547584716</v>
+        <v>-0.642803566666038</v>
       </c>
       <c r="D182">
-        <v>-0.488361377644627</v>
+        <v>-0.4883689518240549</v>
+      </c>
+      <c r="E182">
+        <v>42</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.775901284965709</v>
+        <v>-0.7759080644665054</v>
       </c>
       <c r="C183">
-        <v>-0.5306525159893115</v>
+        <v>-0.5306519943912723</v>
       </c>
       <c r="D183">
-        <v>0.2324259189364655</v>
+        <v>0.2324197545116754</v>
+      </c>
+      <c r="E183">
+        <v>42</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.5911665607636334</v>
+        <v>-0.5911750498387986</v>
       </c>
       <c r="C184">
-        <v>-0.6774861258566712</v>
+        <v>-0.6774855329370781</v>
       </c>
       <c r="D184">
-        <v>0.1400660170185142</v>
+        <v>0.1400619671737104</v>
+      </c>
+      <c r="E184">
+        <v>42</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.8448752694516387</v>
+        <v>-0.8448829725917433</v>
       </c>
       <c r="C185">
-        <v>-0.4413796308450374</v>
+        <v>-0.4413788586396553</v>
       </c>
       <c r="D185">
-        <v>0.1233479503053596</v>
+        <v>0.1233418620348872</v>
+      </c>
+      <c r="E185">
+        <v>42</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.9790069535380244</v>
+        <v>-0.979015381866096</v>
       </c>
       <c r="C186">
-        <v>-0.8064215751782021</v>
+        <v>-0.8064209212173865</v>
       </c>
       <c r="D186">
-        <v>0.5468148664764494</v>
+        <v>0.5468081890445278</v>
+      </c>
+      <c r="E186">
+        <v>42</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6784382459814966</v>
+        <v>0.6784295632283875</v>
       </c>
       <c r="C187">
-        <v>-0.5374298635492524</v>
+        <v>-0.5374287505606192</v>
       </c>
       <c r="D187">
-        <v>-1.178079940756509</v>
+        <v>-1.178086863356011</v>
+      </c>
+      <c r="E187">
+        <v>43</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3027311223300757</v>
+        <v>0.3027230959330748</v>
       </c>
       <c r="C188">
-        <v>-0.3942211558302184</v>
+        <v>-0.3942206948630161</v>
       </c>
       <c r="D188">
-        <v>-0.9438898164205254</v>
+        <v>-0.9438970164455467</v>
+      </c>
+      <c r="E188">
+        <v>43</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.04621829702806624</v>
+        <v>-0.04622607140394852</v>
       </c>
       <c r="C189">
-        <v>-0.6626884640449936</v>
+        <v>-0.6626884535996347</v>
       </c>
       <c r="D189">
-        <v>-0.4318792814764856</v>
+        <v>-0.4318858808079821</v>
+      </c>
+      <c r="E189">
+        <v>43</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.1693944017131033</v>
+        <v>-0.1694013403969825</v>
       </c>
       <c r="C190">
-        <v>-0.4400095654919465</v>
+        <v>-0.4400083660408537</v>
       </c>
       <c r="D190">
-        <v>-0.5213924338628586</v>
+        <v>-0.5213983074286059</v>
+      </c>
+      <c r="E190">
+        <v>43</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.4841146953438285</v>
+        <v>-0.4841227753566787</v>
       </c>
       <c r="C191">
-        <v>0.1618542139188165</v>
+        <v>0.1618550771832219</v>
       </c>
       <c r="D191">
-        <v>-0.8666737911399962</v>
+        <v>-0.8666810037497745</v>
+      </c>
+      <c r="E191">
+        <v>43</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.3182420462746041</v>
+        <v>-0.3182497613566239</v>
       </c>
       <c r="C192">
-        <v>-0.5242101019169559</v>
+        <v>-0.5242094933679144</v>
       </c>
       <c r="D192">
-        <v>-0.2712595845325143</v>
+        <v>-0.2712669738184272</v>
+      </c>
+      <c r="E192">
+        <v>43</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.2438293617539659</v>
+        <v>-0.2438371042971904</v>
       </c>
       <c r="C193">
-        <v>-0.02393885959093656</v>
+        <v>-0.0239388887368539</v>
       </c>
       <c r="D193">
-        <v>-0.9704855285655828</v>
+        <v>-0.9704931632855704</v>
+      </c>
+      <c r="E193">
+        <v>43</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.6964127242498569</v>
+        <v>-0.696419287969304</v>
       </c>
       <c r="C194">
-        <v>-0.04210737302703749</v>
+        <v>-0.04210564875925937</v>
       </c>
       <c r="D194">
-        <v>-0.6856895211472864</v>
+        <v>-0.6856959327738927</v>
+      </c>
+      <c r="E194">
+        <v>43</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.1405995047609776</v>
+        <v>-0.1406063005094031</v>
       </c>
       <c r="C195">
-        <v>-0.4734661161761223</v>
+        <v>-0.4734663641897507</v>
       </c>
       <c r="D195">
-        <v>-0.5480300670645946</v>
+        <v>-0.5480365006870632</v>
+      </c>
+      <c r="E195">
+        <v>43</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.1389206676065629</v>
+        <v>-0.1389274023509013</v>
       </c>
       <c r="C196">
-        <v>-0.2339834927208974</v>
+        <v>-0.2339836999694768</v>
       </c>
       <c r="D196">
-        <v>-0.8564714572002616</v>
+        <v>-0.8564783343024811</v>
+      </c>
+      <c r="E196">
+        <v>43</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.2171113410425004</v>
+        <v>-0.2171182579903573</v>
       </c>
       <c r="C197">
-        <v>-0.05323688907120233</v>
+        <v>-0.05323606527328051</v>
       </c>
       <c r="D197">
-        <v>-0.9594504522494443</v>
+        <v>-0.9594577373720947</v>
+      </c>
+      <c r="E197">
+        <v>43</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.241256268843404</v>
+        <v>-0.2412628734906935</v>
       </c>
       <c r="C198">
-        <v>-0.266477706454178</v>
+        <v>-0.2664764918919462</v>
       </c>
       <c r="D198">
-        <v>-0.7784933891205053</v>
+        <v>-0.7784997242397735</v>
+      </c>
+      <c r="E198">
+        <v>43</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.05612547501625043</v>
+        <v>0.05611848470875902</v>
       </c>
       <c r="C199">
-        <v>-0.4199216365931662</v>
+        <v>-0.4199215842881948</v>
       </c>
       <c r="D199">
-        <v>-0.8141541999693575</v>
+        <v>-0.8141606440711509</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.5923883212109966</v>
+        <v>-0.5923953879340571</v>
       </c>
       <c r="C200">
-        <v>-0.5580769059217771</v>
+        <v>-0.5580758520523114</v>
       </c>
       <c r="D200">
-        <v>-0.01889778547815102</v>
+        <v>-0.01890449999407642</v>
+      </c>
+      <c r="E200">
+        <v>43</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.1922831642107061</v>
+        <v>-0.1922891371400868</v>
       </c>
       <c r="C201">
-        <v>0.4301631581675494</v>
+        <v>0.430163473326982</v>
       </c>
       <c r="D201">
-        <v>-1.571310313953677</v>
+        <v>-1.571316403703812</v>
+      </c>
+      <c r="E201">
+        <v>43</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.6194617530311672</v>
+        <v>-0.6194679408696303</v>
       </c>
       <c r="C202">
-        <v>0.3736522862351628</v>
+        <v>0.3736515217599865</v>
       </c>
       <c r="D202">
-        <v>-1.124034283809252</v>
+        <v>-1.124040612235763</v>
+      </c>
+      <c r="E202">
+        <v>43</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4115067873866753</v>
+        <v>0.4114997235408516</v>
       </c>
       <c r="C203">
-        <v>-0.5925900546334399</v>
+        <v>-0.5925894646327265</v>
       </c>
       <c r="D203">
-        <v>-0.980709499984882</v>
+        <v>-0.9807169376367597</v>
+      </c>
+      <c r="E203">
+        <v>43</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0469848705389716</v>
+        <v>0.04697756426268418</v>
       </c>
       <c r="C204">
-        <v>-0.4838187205559212</v>
+        <v>-0.4838195888597061</v>
       </c>
       <c r="D204">
-        <v>-0.7223875924319783</v>
+        <v>-0.7223945747500229</v>
+      </c>
+      <c r="E204">
+        <v>43</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.3166799353994276</v>
+        <v>-0.3166873496556476</v>
       </c>
       <c r="C205">
-        <v>-0.3297159985119194</v>
+        <v>-0.3297145749489475</v>
       </c>
       <c r="D205">
-        <v>-0.5702666484508104</v>
+        <v>-0.5702733763533506</v>
+      </c>
+      <c r="E205">
+        <v>43</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.09794046752494978</v>
+        <v>0.09793483218391219</v>
       </c>
       <c r="C206">
-        <v>-0.3121319510050863</v>
+        <v>-0.3121309427227265</v>
       </c>
       <c r="D206">
-        <v>-1.143514814368242</v>
+        <v>-1.143519140731904</v>
+      </c>
+      <c r="E206">
+        <v>43</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.1722132404703209</v>
+        <v>-0.1722199958966324</v>
       </c>
       <c r="C207">
-        <v>-0.3178551930002561</v>
+        <v>-0.3178553254258086</v>
       </c>
       <c r="D207">
-        <v>-0.7048720107073398</v>
+        <v>-0.7048789929401333</v>
+      </c>
+      <c r="E207">
+        <v>43</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.4981980746793858</v>
+        <v>-0.4982048427072632</v>
       </c>
       <c r="C208">
-        <v>-0.1199140845669475</v>
+        <v>-0.1199129924124335</v>
       </c>
       <c r="D208">
-        <v>-0.7345023457996624</v>
+        <v>-0.7345077727977551</v>
+      </c>
+      <c r="E208">
+        <v>43</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.1782387672880794</v>
+        <v>-0.1782453146455907</v>
       </c>
       <c r="C209">
-        <v>-0.3533134297826235</v>
+        <v>-0.3533134542784099</v>
       </c>
       <c r="D209">
-        <v>-0.6669269816194344</v>
+        <v>-0.6669332289155305</v>
+      </c>
+      <c r="E209">
+        <v>43</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.2923903621253381</v>
+        <v>0.2923812883632814</v>
       </c>
       <c r="C210">
-        <v>-0.949854401332596</v>
+        <v>-0.9498544551532864</v>
       </c>
       <c r="D210">
-        <v>-0.3084037635094952</v>
+        <v>-0.3084100665072523</v>
+      </c>
+      <c r="E210">
+        <v>44</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.06114503320560516</v>
+        <v>-0.06115290089972492</v>
       </c>
       <c r="C211">
-        <v>-0.9599641313791301</v>
+        <v>-0.9599630401466646</v>
       </c>
       <c r="D211">
-        <v>-0.1298247124789615</v>
+        <v>-0.1298310320449771</v>
+      </c>
+      <c r="E211">
+        <v>44</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6614198152764177</v>
+        <v>0.6614124391707249</v>
       </c>
       <c r="C212">
-        <v>-0.7065387122790697</v>
+        <v>-0.7065381556204887</v>
       </c>
       <c r="D212">
-        <v>-0.9404705558463676</v>
+        <v>-0.9404765251083884</v>
+      </c>
+      <c r="E212">
+        <v>44</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.1333844006020785</v>
+        <v>-0.1333923165450372</v>
       </c>
       <c r="C213">
-        <v>-0.3814885202638174</v>
+        <v>-0.3814883193934175</v>
       </c>
       <c r="D213">
-        <v>-0.6080381618489328</v>
+        <v>-0.6080442631869203</v>
+      </c>
+      <c r="E213">
+        <v>44</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.7468245913306031</v>
+        <v>0.7468163617288245</v>
       </c>
       <c r="C214">
-        <v>-0.4179558085147749</v>
+        <v>-0.4179547674840928</v>
       </c>
       <c r="D214">
-        <v>-1.352719770319337</v>
+        <v>-1.352725824798537</v>
+      </c>
+      <c r="E214">
+        <v>44</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.2715490805471809</v>
+        <v>-0.2715549930035512</v>
       </c>
       <c r="C215">
-        <v>-0.576912580138476</v>
+        <v>-0.5769119661306077</v>
       </c>
       <c r="D215">
-        <v>-0.2496321162119994</v>
+        <v>-0.2496390916604358</v>
+      </c>
+      <c r="E215">
+        <v>44</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.02648765589826407</v>
+        <v>0.02648126832938047</v>
       </c>
       <c r="C216">
-        <v>-0.6395876146092977</v>
+        <v>-0.6395876998232618</v>
       </c>
       <c r="D216">
-        <v>-0.5555085327050467</v>
+        <v>-0.5555146338356389</v>
+      </c>
+      <c r="E216">
+        <v>44</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.08128845606161761</v>
+        <v>0.08128132667482857</v>
       </c>
       <c r="C217">
-        <v>-0.1329516428293793</v>
+        <v>-0.1329509194357176</v>
       </c>
       <c r="D217">
-        <v>-1.087090199755597</v>
+        <v>-1.08709601711466</v>
+      </c>
+      <c r="E217">
+        <v>44</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6485494289316294</v>
+        <v>0.6485413674519652</v>
       </c>
       <c r="C218">
-        <v>-0.485114885809923</v>
+        <v>-0.4851139623861982</v>
       </c>
       <c r="D218">
-        <v>-1.108652901597593</v>
+        <v>-1.108661630966524</v>
+      </c>
+      <c r="E218">
+        <v>44</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.5857198285924852</v>
+        <v>-0.5857262731732292</v>
       </c>
       <c r="C219">
-        <v>0.05373079753271415</v>
+        <v>0.05373108417029993</v>
       </c>
       <c r="D219">
-        <v>-0.4470961751163331</v>
+        <v>-0.4471045644012122</v>
+      </c>
+      <c r="E219">
+        <v>44</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.79991604114987</v>
+        <v>-0.7999239749262688</v>
       </c>
       <c r="C220">
-        <v>-0.4760330891296399</v>
+        <v>-0.4760322337783837</v>
       </c>
       <c r="D220">
-        <v>0.0469767924032789</v>
+        <v>0.04697244047854449</v>
+      </c>
+      <c r="E220">
+        <v>44</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.05677055941313636</v>
+        <v>-0.05677804395021879</v>
       </c>
       <c r="C221">
-        <v>-0.1949968366735592</v>
+        <v>-0.1949965043601892</v>
       </c>
       <c r="D221">
-        <v>-0.8863889847585489</v>
+        <v>-0.886396132744361</v>
+      </c>
+      <c r="E221">
+        <v>44</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.2546632517468412</v>
+        <v>-0.2546705323809501</v>
       </c>
       <c r="C222">
-        <v>-0.1515926322972437</v>
+        <v>-0.1515923459162062</v>
       </c>
       <c r="D222">
-        <v>-0.7013084630675384</v>
+        <v>-0.7013144574675929</v>
+      </c>
+      <c r="E222">
+        <v>44</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.0865949068537325</v>
+        <v>-0.08660249131047493</v>
       </c>
       <c r="C223">
-        <v>0.02604006480747834</v>
+        <v>0.02603956135648089</v>
       </c>
       <c r="D223">
-        <v>-1.065317002734011</v>
+        <v>-1.065325284669238</v>
+      </c>
+      <c r="E223">
+        <v>44</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1957337028745648</v>
+        <v>0.1957259858253703</v>
       </c>
       <c r="C224">
-        <v>-0.764866723485663</v>
+        <v>-0.7648671340180351</v>
       </c>
       <c r="D224">
-        <v>-0.4975125562582535</v>
+        <v>-0.4975193788827094</v>
+      </c>
+      <c r="E224">
+        <v>44</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.1204746500172863</v>
+        <v>-0.1204837307397337</v>
       </c>
       <c r="C225">
-        <v>0.09358894941380047</v>
+        <v>0.09358980070765821</v>
       </c>
       <c r="D225">
-        <v>-1.005661070263753</v>
+        <v>-1.005669914091728</v>
+      </c>
+      <c r="E225">
+        <v>44</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.116239114968259</v>
+        <v>0.1162317722127487</v>
       </c>
       <c r="C226">
-        <v>-0.8034253880139322</v>
+        <v>-0.8034260350464425</v>
       </c>
       <c r="D226">
-        <v>-0.3557084728506541</v>
+        <v>-0.3557152990389609</v>
+      </c>
+      <c r="E226">
+        <v>44</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.2572558387309847</v>
+        <v>-0.2572630046613128</v>
       </c>
       <c r="C227">
-        <v>-0.3637621791265727</v>
+        <v>-0.3637606266884471</v>
       </c>
       <c r="D227">
-        <v>-0.6646235213421801</v>
+        <v>-0.6646287564790226</v>
+      </c>
+      <c r="E227">
+        <v>44</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4237725185773102</v>
+        <v>0.4237642611076083</v>
       </c>
       <c r="C228">
-        <v>-0.8877574263116303</v>
+        <v>-0.8877571610269803</v>
       </c>
       <c r="D228">
-        <v>-0.5321033579426452</v>
+        <v>-0.5321100580074924</v>
+      </c>
+      <c r="E228">
+        <v>44</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.09219272003775725</v>
+        <v>-0.09220129799111543</v>
       </c>
       <c r="C229">
-        <v>-0.8604472509656046</v>
+        <v>-0.8604468442692718</v>
       </c>
       <c r="D229">
-        <v>0.007640033954411984</v>
+        <v>0.007632510369189688</v>
+      </c>
+      <c r="E229">
+        <v>44</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1489198955069391</v>
+        <v>0.1489127333102741</v>
       </c>
       <c r="C230">
-        <v>-0.2940756467827395</v>
+        <v>-0.2940744981586041</v>
       </c>
       <c r="D230">
-        <v>-0.9529676746750116</v>
+        <v>-0.9529740533299649</v>
+      </c>
+      <c r="E230">
+        <v>44</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1932941011576889</v>
+        <v>0.1932865290274544</v>
       </c>
       <c r="C231">
-        <v>0.07182643854668558</v>
+        <v>0.0718276755211571</v>
       </c>
       <c r="D231">
-        <v>-1.407533193820262</v>
+        <v>-1.407538295284757</v>
+      </c>
+      <c r="E231">
+        <v>44</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.0165435606870874</v>
+        <v>0.01653597290949771</v>
       </c>
       <c r="C232">
-        <v>-0.5861196222199596</v>
+        <v>-0.5861185899351808</v>
       </c>
       <c r="D232">
-        <v>-0.6040076653518807</v>
+        <v>-0.604013652609202</v>
+      </c>
+      <c r="E232">
+        <v>44</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4932806045534444</v>
+        <v>0.4932724617260521</v>
       </c>
       <c r="C233">
-        <v>-0.4572704482352835</v>
+        <v>-0.4572708131780983</v>
       </c>
       <c r="D233">
-        <v>-1.000241394906615</v>
+        <v>-1.000248603133521</v>
+      </c>
+      <c r="E233">
+        <v>44</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1850814524501252</v>
+        <v>0.185073313923847</v>
       </c>
       <c r="C234">
-        <v>0.02224790997969128</v>
+        <v>0.02224875922938951</v>
       </c>
       <c r="D234">
-        <v>-1.236912951614358</v>
+        <v>-1.236919898246613</v>
+      </c>
+      <c r="E234">
+        <v>44</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3788447358562639</v>
+        <v>0.378836520824701</v>
       </c>
       <c r="C235">
-        <v>-0.4270107119791414</v>
+        <v>-0.4270108539901657</v>
       </c>
       <c r="D235">
-        <v>-1.014062839614384</v>
+        <v>-1.01406887896729</v>
+      </c>
+      <c r="E235">
+        <v>44</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1504992963729997</v>
+        <v>0.1504921895765988</v>
       </c>
       <c r="C236">
-        <v>-0.5483425822542187</v>
+        <v>-0.5483415652449554</v>
       </c>
       <c r="D236">
-        <v>-0.5556965762973292</v>
+        <v>-0.5557023000315662</v>
+      </c>
+      <c r="E236">
+        <v>44</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.7499774576139449</v>
+        <v>0.7499705711136445</v>
       </c>
       <c r="C237">
-        <v>-0.8336661286134628</v>
+        <v>-0.8336659668196154</v>
       </c>
       <c r="D237">
-        <v>-0.8514004961837425</v>
+        <v>-0.851407167476379</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.3822021105193738</v>
+        <v>-0.3822072915004944</v>
       </c>
       <c r="C238">
-        <v>-0.07338502388569207</v>
+        <v>-0.07338531702505774</v>
       </c>
       <c r="D238">
-        <v>-0.8350678586085769</v>
+        <v>-0.8350732978269497</v>
+      </c>
+      <c r="E238">
+        <v>44</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.08507956350045054</v>
+        <v>0.08507297358157417</v>
       </c>
       <c r="C239">
-        <v>-0.05954585265717716</v>
+        <v>-0.05954519165193756</v>
       </c>
       <c r="D239">
-        <v>-1.031881865487161</v>
+        <v>-1.031887912811101</v>
+      </c>
+      <c r="E239">
+        <v>44</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.4202065472934493</v>
+        <v>0.4202002127044341</v>
       </c>
       <c r="C240">
-        <v>-0.5122986235855327</v>
+        <v>-0.5122990362719835</v>
       </c>
       <c r="D240">
-        <v>-1.110203942263605</v>
+        <v>-1.110209830191445</v>
+      </c>
+      <c r="E240">
+        <v>44</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3257712142426796</v>
+        <v>0.3257643900968342</v>
       </c>
       <c r="C241">
-        <v>-0.5067926669323353</v>
+        <v>-0.5067924396640302</v>
       </c>
       <c r="D241">
-        <v>-1.02127393155091</v>
+        <v>-1.021279773377915</v>
+      </c>
+      <c r="E241">
+        <v>44</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.02182503521620582</v>
+        <v>0.02181796641347022</v>
       </c>
       <c r="C242">
-        <v>-0.2447969313537939</v>
+        <v>-0.2447965438220618</v>
       </c>
       <c r="D242">
-        <v>-0.8509624357116533</v>
+        <v>-0.8509696719318298</v>
+      </c>
+      <c r="E242">
+        <v>44</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1101833511283641</v>
+        <v>0.1101758924863707</v>
       </c>
       <c r="C243">
-        <v>0.157317143568493</v>
+        <v>0.1573182950059555</v>
       </c>
       <c r="D243">
-        <v>-1.300757274685742</v>
+        <v>-1.300762712461829</v>
+      </c>
+      <c r="E243">
+        <v>44</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4224653285503985</v>
+        <v>0.4224573286870567</v>
       </c>
       <c r="C244">
-        <v>-0.5859645971366965</v>
+        <v>-0.5859634407718771</v>
       </c>
       <c r="D244">
-        <v>-0.8871953320450584</v>
+        <v>-0.8872017863455572</v>
+      </c>
+      <c r="E244">
+        <v>44</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3980240447470023</v>
+        <v>0.3980158521011693</v>
       </c>
       <c r="C245">
-        <v>-0.2580461039304274</v>
+        <v>-0.2580460822405157</v>
       </c>
       <c r="D245">
-        <v>-1.29759451053335</v>
+        <v>-1.297601974507794</v>
+      </c>
+      <c r="E245">
+        <v>44</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2172900041454385</v>
+        <v>0.2172816291808202</v>
       </c>
       <c r="C246">
-        <v>-0.2252969677315366</v>
+        <v>-0.2252975904221383</v>
       </c>
       <c r="D246">
-        <v>-1.082311464330285</v>
+        <v>-1.082319012970074</v>
+      </c>
+      <c r="E246">
+        <v>44</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2596534720971668</v>
+        <v>0.2596449798121989</v>
       </c>
       <c r="C247">
-        <v>-0.6125635779730064</v>
+        <v>-0.6125634589809121</v>
       </c>
       <c r="D247">
-        <v>-0.7870813117837913</v>
+        <v>-0.7870875254572414</v>
+      </c>
+      <c r="E247">
+        <v>44</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.1818902420657559</v>
+        <v>-0.181897374959212</v>
       </c>
       <c r="C248">
-        <v>0.1782981316754603</v>
+        <v>0.1782991463412636</v>
       </c>
       <c r="D248">
-        <v>-1.195354473383284</v>
+        <v>-1.195358139901593</v>
+      </c>
+      <c r="E248">
+        <v>44</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.1809773121436095</v>
+        <v>-0.1809858717658045</v>
       </c>
       <c r="C249">
-        <v>0.2830569066367624</v>
+        <v>0.2830562074314165</v>
       </c>
       <c r="D249">
-        <v>-1.19349659658289</v>
+        <v>-1.193503974510149</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.2916448347287694</v>
+        <v>-0.2916499926867168</v>
       </c>
       <c r="C250">
-        <v>0.02460735672451786</v>
+        <v>0.02460765847071589</v>
       </c>
       <c r="D250">
-        <v>-0.9580526040099596</v>
+        <v>-0.9580583665709275</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2366469841625018</v>
+        <v>0.2366394078028201</v>
       </c>
       <c r="C251">
-        <v>0.03304968425803034</v>
+        <v>0.0330498780187326</v>
       </c>
       <c r="D251">
-        <v>-1.437033053464839</v>
+        <v>-1.437039220938025</v>
+      </c>
+      <c r="E251">
+        <v>45</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.1382427714912109</v>
+        <v>-0.1382494064354695</v>
       </c>
       <c r="C252">
-        <v>0.2335605530958302</v>
+        <v>0.2335617687576517</v>
       </c>
       <c r="D252">
-        <v>-1.119509768159243</v>
+        <v>-1.119516857885866</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.2768995720754476</v>
+        <v>-0.2769073034249809</v>
       </c>
       <c r="C253">
-        <v>0.2835048602119528</v>
+        <v>0.2835045963936281</v>
       </c>
       <c r="D253">
-        <v>-1.267828716744599</v>
+        <v>-1.267834759870801</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.1237961044296597</v>
+        <v>-0.1238033402012045</v>
       </c>
       <c r="C254">
-        <v>0.4672392157675531</v>
+        <v>0.467239686431836</v>
       </c>
       <c r="D254">
-        <v>-1.581774440316012</v>
+        <v>-1.581780714623718</v>
+      </c>
+      <c r="E254">
+        <v>45</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.4220092636023179</v>
+        <v>-0.4220174733701723</v>
       </c>
       <c r="C255">
-        <v>0.0904129291320459</v>
+        <v>0.09041253863796805</v>
       </c>
       <c r="D255">
-        <v>-0.9382708435340592</v>
+        <v>-0.9382780231414052</v>
+      </c>
+      <c r="E255">
+        <v>45</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.3580397515323299</v>
+        <v>-0.3580473003867334</v>
       </c>
       <c r="C256">
-        <v>0.23358623093255</v>
+        <v>0.2335856824803995</v>
       </c>
       <c r="D256">
-        <v>-1.144892084562555</v>
+        <v>-1.144898383979892</v>
+      </c>
+      <c r="E256">
+        <v>45</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.2964092197095384</v>
+        <v>-0.2964176060117357</v>
       </c>
       <c r="C257">
-        <v>-0.019474016242227</v>
+        <v>-0.01947418154680813</v>
       </c>
       <c r="D257">
-        <v>-0.8251714271962276</v>
+        <v>-0.8251784006814411</v>
+      </c>
+      <c r="E257">
+        <v>45</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.3895471640850017</v>
+        <v>-0.3895546164903841</v>
       </c>
       <c r="C258">
-        <v>0.3556250436579023</v>
+        <v>0.3556247995473566</v>
       </c>
       <c r="D258">
-        <v>-1.246461110300971</v>
+        <v>-1.246467254038841</v>
+      </c>
+      <c r="E258">
+        <v>45</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0943496780278984</v>
+        <v>0.09434198792501491</v>
       </c>
       <c r="C259">
-        <v>-0.9378858474048841</v>
+        <v>-0.9378845405875458</v>
       </c>
       <c r="D259">
-        <v>-0.3913851488431738</v>
+        <v>-0.3913922455401931</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.491719195380358</v>
+        <v>-0.4917266917623282</v>
       </c>
       <c r="C260">
-        <v>-0.6693623715924075</v>
+        <v>-0.6693618727923807</v>
       </c>
       <c r="D260">
-        <v>-0.03606257307676503</v>
+        <v>-0.03606903849700238</v>
+      </c>
+      <c r="E260">
+        <v>45</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.06735429267315551</v>
+        <v>0.06734710881535466</v>
       </c>
       <c r="C261">
-        <v>0.01066835767989849</v>
+        <v>0.0106695555764067</v>
       </c>
       <c r="D261">
-        <v>-1.271180069099527</v>
+        <v>-1.271185579285365</v>
+      </c>
+      <c r="E261">
+        <v>45</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.3715965187607875</v>
+        <v>-0.3716043098552465</v>
       </c>
       <c r="C262">
-        <v>-0.4051591462551516</v>
+        <v>-0.4051587543679533</v>
       </c>
       <c r="D262">
-        <v>-0.4014393444486489</v>
+        <v>-0.4014464409177665</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.3904641129128606</v>
+        <v>-0.3904721976352971</v>
       </c>
       <c r="C263">
-        <v>0.2386816363967093</v>
+        <v>0.2386810012987648</v>
       </c>
       <c r="D263">
-        <v>-1.097470404974142</v>
+        <v>-1.097477782826232</v>
+      </c>
+      <c r="E263">
+        <v>45</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.4535639763944321</v>
+        <v>-0.4535717350636563</v>
       </c>
       <c r="C264">
-        <v>0.3025740475132329</v>
+        <v>0.3025741994405187</v>
       </c>
       <c r="D264">
-        <v>-1.087435591609945</v>
+        <v>-1.087442514249052</v>
+      </c>
+      <c r="E264">
+        <v>45</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.1346625599631387</v>
+        <v>0.1346556713112166</v>
       </c>
       <c r="C265">
-        <v>-0.2204942638317</v>
+        <v>-0.220494822940922</v>
       </c>
       <c r="D265">
-        <v>-1.127325656705199</v>
+        <v>-1.127330056656382</v>
+      </c>
+      <c r="E265">
+        <v>45</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3100949808804083</v>
+        <v>0.3100877043657068</v>
       </c>
       <c r="C266">
-        <v>0.01922503507196172</v>
+        <v>0.01922586896794365</v>
       </c>
       <c r="D266">
-        <v>-1.492713480963594</v>
+        <v>-1.492718445328042</v>
+      </c>
+      <c r="E266">
+        <v>45</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.5462082141975841</v>
+        <v>-0.5462157571782815</v>
       </c>
       <c r="C267">
-        <v>0.2704450588221327</v>
+        <v>0.2704450766287335</v>
       </c>
       <c r="D267">
-        <v>-1.006465469631997</v>
+        <v>-1.006472370164862</v>
+      </c>
+      <c r="E267">
+        <v>45</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1822328860904461</v>
+        <v>0.182225095023971</v>
       </c>
       <c r="C268">
-        <v>-0.4506544987803316</v>
+        <v>-0.4506535339713863</v>
       </c>
       <c r="D268">
-        <v>-1.048840183118215</v>
+        <v>-1.048845994781961</v>
+      </c>
+      <c r="E268">
+        <v>45</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.2365971118655453</v>
+        <v>-0.236603765531471</v>
       </c>
       <c r="C269">
-        <v>-0.2628720062223838</v>
+        <v>-0.262870798125319</v>
       </c>
       <c r="D269">
-        <v>-0.903199687067585</v>
+        <v>-0.9032038891589866</v>
+      </c>
+      <c r="E269">
+        <v>45</v>
       </c>
       <c r="F269">
         <v>0</v>
